--- a/Images/glr1/worm06/marker_names_consensus.xlsx
+++ b/Images/glr1/worm06/marker_names_consensus.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (GaTech)\Whole-brain codes\CRF_Cell_ID-master\Images\glr1\worm06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunjee/Dropbox (GaTech)/Whole-brain codes/CRF_ID 2.0/Images/glr1/worm06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503E07F-234E-4B7C-A95D-62E038B1AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D06D965-6483-9647-B678-6A7E4C9463CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1870" yWindow="1270" windowWidth="15830" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Marker</t>
   </si>
@@ -106,162 +110,19 @@
     <t>SMDDL</t>
   </si>
   <si>
-    <t>AVEL</t>
-  </si>
-  <si>
-    <t>287,204,40,5,1,RMDVL,</t>
-  </si>
-  <si>
-    <t>287,193,42,5,1,AVAL,</t>
-  </si>
-  <si>
-    <t>261,207,48,5,1,SMDVL,</t>
-  </si>
-  <si>
-    <t>305,238,54,5,1,URYDL,</t>
-  </si>
-  <si>
-    <t>277,254,52,5,1,URYVL,</t>
-  </si>
-  <si>
-    <t>288,228,46,5,1,RMEL,</t>
-  </si>
-  <si>
-    <t>281,176,60,5,1,AVEL,</t>
-  </si>
-  <si>
-    <t>288,171,60,5,1,RMDL,</t>
-  </si>
-  <si>
-    <t>293,144,66,5,1,RMDDL,</t>
-  </si>
-  <si>
-    <t>291,126,68,5,1,SMDDL,</t>
-  </si>
-  <si>
-    <t>282,137,50,5,1,RIML,</t>
-  </si>
-  <si>
-    <t>276,137,36,5,1,AVDL,</t>
-  </si>
-  <si>
-    <t>267,166,31,5,1,AVBL,</t>
-  </si>
-  <si>
-    <t>234,161,52,5,1,M1,</t>
-  </si>
-  <si>
-    <t>250,34,60,5,1,RIGL,</t>
-  </si>
-  <si>
-    <t>291,131,101,5,1,RMDDR,</t>
-  </si>
-  <si>
-    <t>288,121,90,5,1,SMDDR,</t>
-  </si>
-  <si>
-    <t>280,142,105,5,1,AVER?,</t>
-  </si>
-  <si>
-    <t>277,158,105,5,1,RMDR,</t>
-  </si>
-  <si>
-    <t>278,177,108,5,1,AVAR,</t>
-  </si>
-  <si>
-    <t>274,191,120,5,1,RMDVR,</t>
-  </si>
-  <si>
-    <t>278,217,114,5,1,RMER,</t>
-  </si>
-  <si>
-    <t>262,157,124,5,1,AVBR,</t>
-  </si>
-  <si>
-    <t>262,147,128,5,1,AVDR,</t>
-  </si>
-  <si>
-    <t>271,131,119,5,1,RIMR,</t>
-  </si>
-  <si>
-    <t>248,195,110,5,1,SMDVR,</t>
-  </si>
-  <si>
-    <t>266,240,103,5,1,URYVR,</t>
-  </si>
-  <si>
-    <t>AIBL</t>
-  </si>
-  <si>
-    <t>284,157,55,5,1,AIBL?,</t>
-  </si>
-  <si>
-    <t>286,106,95,5,1,AIAR?,</t>
-  </si>
-  <si>
-    <t>284,157,55,5,1,AIBL,</t>
-  </si>
-  <si>
-    <t>234,161,52,5,1,AVJL,</t>
-  </si>
-  <si>
-    <t>250,34,60,5,1,RMGL,</t>
-  </si>
-  <si>
-    <t>286,106,95,5,1,RIMR?,</t>
-  </si>
-  <si>
-    <t>262,147,128,5,1,AVJR?,</t>
-  </si>
-  <si>
-    <t>271,131,119,5,1,AVDR?,</t>
-  </si>
-  <si>
-    <t>266,240,103,5,1,URYDR,</t>
-  </si>
-  <si>
-    <t>AVJL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMGL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIMR?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVJR?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVDR?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URYVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>URYVR</t>
+  </si>
+  <si>
+    <t>URYDR</t>
+  </si>
+  <si>
+    <t>AVER</t>
+  </si>
+  <si>
+    <t>AIBR</t>
   </si>
   <si>
     <t>URYDL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URYDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUB (what is AUB? Idk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -272,30 +133,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,12 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,216 +463,132 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -826,17 +596,8 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -844,222 +605,116 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ref="A23:A30" si="1">A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
